--- a/基本情報勉強.xlsx
+++ b/基本情報勉強.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hide0\Desktop\試験勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76700C89-5786-448B-9889-9FA569A0709B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A515D3-263B-42A3-93AC-382BD1075687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>日付</t>
   </si>
@@ -391,6 +391,124 @@
   </si>
   <si>
     <t>日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リフレッシュ動作が必要</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・主記憶装置に用いる</t>
+    <rPh sb="1" eb="6">
+      <t>シュキオクソウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リフレッシュ不必要</t>
+    <rPh sb="7" eb="10">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・高速だが、構造が複雑</t>
+    <rPh sb="1" eb="3">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクザツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャッシュメモリに用いる</t>
+    <rPh sb="10" eb="11">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フリップフロップで構成</t>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・構造が単純で単価が安い</t>
+    <rPh sb="1" eb="3">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射影</t>
+    <rPh sb="0" eb="2">
+      <t>シャエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特定の列を取り出す</t>
+    <rPh sb="1" eb="3">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特定の行を取り出す</t>
+    <rPh sb="1" eb="3">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,52 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF7030A0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -483,8 +555,65 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF7030A0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +625,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,25 +654,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -555,8 +699,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="チェック セル" xfId="2" builtinId="23"/>
     <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -861,1105 +1024,1114 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="18.375" style="9"/>
+    <col min="1" max="16384" width="18.375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>46054</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
-        <v>3</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="4">
         <v>46055</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>46056</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="5">
         <v>3.5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>46057</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="17">
         <v>0.5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="17">
         <v>2.5</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>46058</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>46059</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>46060</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>46061</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="D10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>46062</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>46063</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>46064</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>46065</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="D14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>46066</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>46067</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="D16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>46068</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="D17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>46069</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="D18" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>46070</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="D19" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>46071</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="D20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>46072</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="D21" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>46073</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="D22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>46074</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="D23" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>46075</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="D24" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="4">
         <v>46076</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="5">
         <v>2</v>
       </c>
-      <c r="D25" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="D25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
+    <row r="26" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>46077</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="7">
         <v>0</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
+    <row r="27" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>46078</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="7">
         <v>0</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
+    <row r="28" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>46079</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="7">
         <v>0.5</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>46080</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="D29" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="D29" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>46081</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="D30" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>46082</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>46083</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>46084</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>46085</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>46086</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>46087</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>46088</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="4">
         <v>46089</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>46090</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+      <c r="A40" s="4">
         <v>46091</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>46092</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+      <c r="A42" s="4">
         <v>46093</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>46094</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
+      <c r="A44" s="4">
         <v>46095</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>46096</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="4">
         <v>46097</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10">
+      <c r="A47" s="4">
         <v>46098</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
+      <c r="A48" s="4">
         <v>46099</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+      <c r="A49" s="4">
         <v>46100</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10">
+      <c r="A50" s="4">
         <v>46101</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10">
+      <c r="A51" s="4">
         <v>46102</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="A52" s="4">
         <v>46103</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10">
+      <c r="A53" s="4">
         <v>46104</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10">
+      <c r="A54" s="4">
         <v>46105</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+      <c r="A55" s="4">
         <v>46106</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10">
+      <c r="A56" s="4">
         <v>46107</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10">
+      <c r="A57" s="4">
         <v>46108</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+      <c r="A58" s="4">
         <v>46109</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10">
+      <c r="A59" s="4">
         <v>46110</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10">
+      <c r="A60" s="4">
         <v>46111</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+      <c r="A61" s="4">
         <v>46112</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10">
+      <c r="A62" s="4">
         <v>46113</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10">
+      <c r="A63" s="4">
         <v>46114</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10">
+      <c r="A64" s="4">
         <v>46115</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10">
+      <c r="A65" s="4">
         <v>46116</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10">
+      <c r="A66" s="4">
         <v>46117</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
+      <c r="A67" s="4">
         <v>46118</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10">
+      <c r="A68" s="4">
         <v>46119</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10">
+      <c r="A69" s="4">
         <v>46120</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10">
+      <c r="A70" s="4">
         <v>46121</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10">
+      <c r="A71" s="4">
         <v>46122</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10">
+      <c r="A72" s="4">
         <v>46123</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10">
+      <c r="A73" s="4">
         <v>46124</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10">
+      <c r="A74" s="4">
         <v>46125</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="10">
+      <c r="A75" s="4">
         <v>46126</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10">
+      <c r="A76" s="4">
         <v>46127</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10">
+      <c r="A77" s="4">
         <v>46128</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10">
+      <c r="A78" s="4">
         <v>46129</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10">
+      <c r="A79" s="4">
         <v>46130</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10">
+      <c r="A80" s="4">
         <v>46131</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10">
+      <c r="A81" s="4">
         <v>46132</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10">
+      <c r="A82" s="4">
         <v>46133</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10">
+      <c r="A83" s="4">
         <v>46134</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10">
+      <c r="A84" s="4">
         <v>46135</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10">
+      <c r="A85" s="4">
         <v>46136</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10">
+      <c r="A86" s="4">
         <v>46137</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="10">
+      <c r="A87" s="4">
         <v>46138</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10">
+      <c r="A88" s="4">
         <v>46139</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10">
+      <c r="A89" s="4">
         <v>46140</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="11"/>
+      <c r="B90" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1969,482 +2141,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F55" sqref="F53:F55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="1"/>
+    <col min="2" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="P1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="P5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="P10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="P12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/基本情報勉強.xlsx
+++ b/基本情報勉強.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hide0\Desktop\試験勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A515D3-263B-42A3-93AC-382BD1075687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D340E71-151D-4A13-8596-C2649C9640B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <rPh sb="0" eb="2">
       <t>リカイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>基数変換</t>
@@ -45,7 +45,7 @@
     <rPh sb="2" eb="4">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10進数から各基数への変換はその基数で割った余りを出す(割り切れなくなるまで)</t>
@@ -79,7 +79,7 @@
     <rPh sb="30" eb="31">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>２進数→１０進数</t>
@@ -89,7 +89,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各ビットの位置に対応する2の累乗をかけた総和を出す 110101→32+16+0+4+0+1</t>
@@ -111,7 +111,7 @@
     <rPh sb="23" eb="24">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>２進数→8進数</t>
@@ -121,7 +121,7 @@
     <rPh sb="5" eb="7">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3ビットずつに分けて変換する   110101→110 101→65</t>
@@ -131,7 +131,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>２進数→16進数</t>
@@ -141,7 +141,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4ビットずつに分けて変換する   110101→0011 0101→35</t>
@@ -151,7 +151,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>１６進数→２進数</t>
@@ -161,14 +161,14 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10進数</t>
     <rPh sb="2" eb="4">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各桁の16の累乗をかけて総和を出す</t>
@@ -184,18 +184,18 @@
     <rPh sb="15" eb="16">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1A3→256+160+3</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2進数</t>
     <rPh sb="1" eb="3">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4ビットずつ区切り2進数に変換する</t>
@@ -208,18 +208,18 @@
     <rPh sb="13" eb="15">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>D5→1101 0101</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8進数</t>
     <rPh sb="1" eb="3">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>まず10進数に変換後、8進数に変換</t>
@@ -238,11 +238,11 @@
     <rPh sb="15" eb="17">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>D5→213→325</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8進数→10進数</t>
@@ -252,7 +252,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各桁の8の累乗をかけて総和を出す</t>
@@ -268,11 +268,11 @@
     <rPh sb="14" eb="15">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>６５→6*8+5</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8進数→2進数</t>
@@ -282,7 +282,7 @@
     <rPh sb="5" eb="7">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各3ビットの2進数に変換                                     65→110 101</t>
@@ -295,7 +295,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8進数→16進数</t>
@@ -305,7 +305,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8進数→2進数に変換→4ビットに分けて16進数に変換 65→110101→0011 0101→35</t>
@@ -327,7 +327,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>小数点を基準に進行方向を考えたらいける→         ←。→</t>
@@ -376,26 +376,26 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新規B問題_予定</t>
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新規A_実績</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DRAM</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・リフレッシュ動作が必要</t>
@@ -405,7 +405,7 @@
     <rPh sb="10" eb="12">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・主記憶装置に用いる</t>
@@ -415,18 +415,18 @@
     <rPh sb="7" eb="8">
       <t>モチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SRAM</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・リフレッシュ不必要</t>
     <rPh sb="7" eb="10">
       <t>フヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・高速だが、構造が複雑</t>
@@ -439,21 +439,21 @@
     <rPh sb="9" eb="11">
       <t>フクザツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・キャッシュメモリに用いる</t>
     <rPh sb="10" eb="11">
       <t>モチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・フリップフロップで構成</t>
     <rPh sb="10" eb="12">
       <t>コウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・構造が単純で単価が安い</t>
@@ -463,14 +463,14 @@
     <rPh sb="4" eb="6">
       <t>タンジュン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>射影</t>
     <rPh sb="0" eb="2">
       <t>シャエイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・特定の列を取り出す</t>
@@ -486,14 +486,14 @@
     <rPh sb="8" eb="9">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選択</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・特定の行を取り出す</t>
@@ -509,19 +509,27 @@
     <rPh sb="8" eb="9">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,16 +612,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C5700"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,11 +634,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -654,35 +667,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -692,34 +693,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="チェック セル" xfId="2" builtinId="23"/>
+  <cellStyles count="4">
+    <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
+    <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
     <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1024,7 +1033,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,31 +1105,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>46055</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>46056</v>
       </c>
@@ -1128,23 +1145,23 @@
         <v>35</v>
       </c>
       <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
       <c r="E5" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>46057</v>
       </c>
@@ -1152,45 +1169,45 @@
         <v>36</v>
       </c>
       <c r="C6" s="17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
-        <v>0.5</v>
-      </c>
       <c r="F6" s="17">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16">
         <v>46058</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -1200,16 +1217,16 @@
         <v>38</v>
       </c>
       <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.5</v>
-      </c>
       <c r="E8" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1225,16 +1242,16 @@
         <v>39</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -1246,16 +1263,16 @@
         <v>40</v>
       </c>
       <c r="C10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1266,16 +1283,16 @@
         <v>34</v>
       </c>
       <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.5</v>
-      </c>
       <c r="E11" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1286,16 +1303,16 @@
         <v>35</v>
       </c>
       <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.5</v>
-      </c>
       <c r="E12" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1312,10 +1329,10 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1326,16 +1343,16 @@
         <v>37</v>
       </c>
       <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
-        <v>1.5</v>
-      </c>
       <c r="E14" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1558,64 +1575,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
         <v>46077</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="17">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="17">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
         <v>46078</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="17">
         <v>0</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="16">
         <v>46079</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="17">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="17">
         <v>0.5</v>
       </c>
-      <c r="F28" s="7">
-        <v>1.5</v>
+      <c r="E28" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2134,7 +2151,7 @@
       <c r="B90" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2730,7 +2747,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/基本情報勉強.xlsx
+++ b/基本情報勉強.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hide0\Desktop\試験勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D340E71-151D-4A13-8596-C2649C9640B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64F6BA8-7F45-4962-A819-157A6999E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,9 +708,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -725,6 +722,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,36 +1105,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
         <v>46055</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
         <v>0.5</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>0</v>
       </c>
-      <c r="J4" s="20">
-        <v>3</v>
+      <c r="J4" s="19">
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1161,53 +1161,53 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>46057</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>0.5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>46058</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -1575,63 +1575,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+    <row r="26" spans="1:6" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
         <v>46077</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>0</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>0</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>0</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+    <row r="27" spans="1:6" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
         <v>46078</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>0</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>0</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+    <row r="28" spans="1:6" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
         <v>46079</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>1</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>0.5</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>0.5</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>2</v>
       </c>
     </row>
@@ -2173,10 +2173,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2215,10 +2215,10 @@
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>

--- a/基本情報勉強.xlsx
+++ b/基本情報勉強.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hide0\Desktop\試験勉強\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\Desktop\KihonJyouhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64F6BA8-7F45-4962-A819-157A6999E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="勉強予定" sheetId="3" r:id="rId1"/>
     <sheet name="理解" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
     <rPh sb="0" eb="2">
       <t>リカイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>基数変換</t>
@@ -45,7 +44,7 @@
     <rPh sb="2" eb="4">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10進数から各基数への変換はその基数で割った余りを出す(割り切れなくなるまで)</t>
@@ -79,7 +78,7 @@
     <rPh sb="30" eb="31">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>２進数→１０進数</t>
@@ -89,7 +88,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>各ビットの位置に対応する2の累乗をかけた総和を出す 110101→32+16+0+4+0+1</t>
@@ -111,7 +110,7 @@
     <rPh sb="23" eb="24">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>２進数→8進数</t>
@@ -121,7 +120,7 @@
     <rPh sb="5" eb="7">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3ビットずつに分けて変換する   110101→110 101→65</t>
@@ -131,7 +130,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>２進数→16進数</t>
@@ -141,7 +140,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4ビットずつに分けて変換する   110101→0011 0101→35</t>
@@ -151,7 +150,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>１６進数→２進数</t>
@@ -161,14 +160,14 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10進数</t>
     <rPh sb="2" eb="4">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>各桁の16の累乗をかけて総和を出す</t>
@@ -184,18 +183,18 @@
     <rPh sb="15" eb="16">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1A3→256+160+3</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2進数</t>
     <rPh sb="1" eb="3">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4ビットずつ区切り2進数に変換する</t>
@@ -208,18 +207,18 @@
     <rPh sb="13" eb="15">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>D5→1101 0101</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8進数</t>
     <rPh sb="1" eb="3">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>まず10進数に変換後、8進数に変換</t>
@@ -238,11 +237,11 @@
     <rPh sb="15" eb="17">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>D5→213→325</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8進数→10進数</t>
@@ -252,7 +251,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>各桁の8の累乗をかけて総和を出す</t>
@@ -268,11 +267,11 @@
     <rPh sb="14" eb="15">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>６５→6*8+5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8進数→2進数</t>
@@ -282,7 +281,7 @@
     <rPh sb="5" eb="7">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>各3ビットの2進数に変換                                     65→110 101</t>
@@ -295,7 +294,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8進数→16進数</t>
@@ -305,7 +304,7 @@
     <rPh sb="6" eb="8">
       <t>シンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8進数→2進数に変換→4ビットに分けて16進数に変換 65→110101→0011 0101→35</t>
@@ -327,7 +326,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>小数点を基準に進行方向を考えたらいける→         ←。→</t>
@@ -376,26 +375,26 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>新規B問題_予定</t>
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>新規A_実績</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>日</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DRAM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・リフレッシュ動作が必要</t>
@@ -405,7 +404,7 @@
     <rPh sb="10" eb="12">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・主記憶装置に用いる</t>
@@ -415,18 +414,18 @@
     <rPh sb="7" eb="8">
       <t>モチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SRAM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・リフレッシュ不必要</t>
     <rPh sb="7" eb="10">
       <t>フヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・高速だが、構造が複雑</t>
@@ -439,21 +438,21 @@
     <rPh sb="9" eb="11">
       <t>フクザツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・キャッシュメモリに用いる</t>
     <rPh sb="10" eb="11">
       <t>モチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・フリップフロップで構成</t>
     <rPh sb="10" eb="12">
       <t>コウセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・構造が単純で単価が安い</t>
@@ -463,14 +462,14 @@
     <rPh sb="4" eb="6">
       <t>タンジュン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>射影</t>
     <rPh sb="0" eb="2">
       <t>シャエイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・特定の列を取り出す</t>
@@ -486,14 +485,14 @@
     <rPh sb="8" eb="9">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>選択</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・特定の行を取り出す</t>
@@ -509,27 +508,19 @@
     <rPh sb="8" eb="9">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,6 +610,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -639,8 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -670,20 +668,20 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -693,44 +691,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
     <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
     <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D28EC58-7003-455C-9472-6722CC763B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,7 +1155,9 @@
         <v>3</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>2.5</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -2151,13 +2151,14 @@
       <c r="B90" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2747,7 +2748,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
